--- a/database/industries/kashi/kazar/product/yearly_seprated.xlsx
+++ b/database/industries/kashi/kazar/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kazar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC78C88D-B9D8-4A08-9B29-D5423E40D73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F916DD-5791-4DD7-BB21-A75EFA93E3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -652,12 +652,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -667,7 +667,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -701,7 +701,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -735,7 +735,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -757,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -767,7 +767,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
@@ -825,7 +825,7 @@
         <v>18192</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -849,7 +849,7 @@
         <v>21981</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -873,7 +873,7 @@
         <v>7362</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
@@ -895,7 +895,7 @@
         <v>47535</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>21</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>23</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>47535</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1133,7 +1133,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1143,7 +1143,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1153,7 +1153,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1185,7 +1185,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>1723966</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>1252729</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>16</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>80980</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>17</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>3058239</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>13</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>15</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>19</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>31</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>21</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>22</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>23</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>25</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>3058239</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1559,7 +1559,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1569,7 +1569,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1579,7 +1579,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>32</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1611,7 +1611,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>13</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>94765062</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>56991447</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>16</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>10999728</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>36</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>13</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>15</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>37</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>11</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>21</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1849,7 +1849,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1859,7 +1859,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1869,7 +1869,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>38</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1901,7 +1901,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>39</v>
       </c>
@@ -1913,7 +1913,7 @@
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>13</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>-1212690</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>-558621</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>16</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
         <v>40</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>-1771311</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>41</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>13</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>15</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
         <v>42</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>43</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>21</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
         <v>44</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
         <v>23</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
         <v>25</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="16" t="s">
         <v>26</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>-1771311</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2275,7 +2275,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2285,7 +2285,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2295,7 +2295,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>45</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2327,7 +2327,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>46</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>11</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>13</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>511276</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>15</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>694108</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>16</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>80980</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
         <v>47</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>1286928</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
         <v>48</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>13</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>15</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
         <v>49</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>50</v>
       </c>
@@ -2551,7 +2551,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>21</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
         <v>51</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="16" t="s">
         <v>26</v>
       </c>
